--- a/26_Naive_Bayas_Algo(Conditional_probability).xlsx
+++ b/26_Naive_Bayas_Algo(Conditional_probability).xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeepmakwana/Documents/Machine learnning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA396990-EE3E-F14B-8FC2-08BB21E30D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3802C887-1EA3-554B-84C9-143C7E0CAB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{E047CAF5-8443-5840-93BA-1E66A79DFB42}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18960" xr2:uid="{E047CAF5-8443-5840-93BA-1E66A79DFB42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>I have a document in front of me (Query Data)</t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>14/53</t>
+  </si>
+  <si>
+    <t>P(offer)</t>
+  </si>
+  <si>
+    <t>16/98</t>
+  </si>
+  <si>
+    <t>P(yes|offer)</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -465,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B69BE79-4005-5D44-82ED-FF83B51C1F12}">
-  <dimension ref="A3:I27"/>
+  <dimension ref="A3:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="158" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="158" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -676,6 +688,30 @@
         <v>0.54081632653061229</v>
       </c>
     </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28">
+        <f>16/98</f>
+        <v>0.16326530612244897</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30">
+        <f>+G26*G27/G28</f>
+        <v>0.87500000000000022</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
